--- a/DAD5_export_v1_0_0.xlsx
+++ b/DAD5_export_v1_0_0.xlsx
@@ -493,19 +493,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>airway_management</t>
+          <t>intubation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Håndtering af patientens luftveje</t>
+          <t>Typen af intubation</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>MethodCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -514,193 +514,6 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald: 
-- sctid41700002 = Spontan respiation
-- BGDA60 ? Maskeventilation
-- larynxmaske = Larynxmaske (alle typer)
-- kgbb00 = tracheostomi
-- andet = Ikke relevant/pt er Intuberet/tracheostomeret</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "larynxmaske" | "intubation" | "kgbb00" | "andet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>anesthesia_observation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>OrganizationCode</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Type af observationssted (opvågningssted)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hvor er patienten udskrevet til?
-Ekstra oplysninger til udfald: 
-- sctid261554009 = Reoperation
-- sctid310032008 = Intensiv afdeling
-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Starttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DateTimeEnd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SOR_anesthesia</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>OrganizationCode</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>intubation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Typen af intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekstra oplysninger til udfald: 
 - laryngoskopi_max2 = Højest 2 forsøg, seneste ved direkte laryngoskopi
@@ -712,199 +525,41 @@
 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>airway_management_last_attempt</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sidste forsøg på håndtering af patientens luftveje</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>relaxation_intubation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Relaksation til intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- sctid257268009 = LMA (alle typer)
-- sctid78121007 = Direkte laryngoskopi
-- kgba00a  = Nødtracheostomi
-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>service_time</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Start og slut ydelse</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DateTimeEnd</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>procedure_code</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SKS-kode for den **vigtigste** procedure foretaget under anæstesien</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>relaxation_intubation</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Relaksation til intubation</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekstra oplysninger til udfald:
 - vv00003  = nej
@@ -914,41 +569,41 @@
 </t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>airaway_plan</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Plan for håndteringen af patientens luftveje</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+    <row r="7">
+      <c r="D7" t="inlineStr">
         <is>
           <t>MethodCode</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekstra oplysninger til udfald:
 - sctid241700002 = Spontan_respiration
@@ -963,41 +618,347 @@
 </t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>anesthesia_observation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Type af observationssted (opvågningssted)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hvor er patienten udskrevet til?
+Ekstra oplysninger til udfald: 
+- sctid261554009 = Reoperation
+- sctid310032008 = Intensiv afdeling
+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Starttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>airway_management_last_attempt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sidste forsøg på håndtering af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekstra oplysninger til udfald:
+- sctid257268009 = LMA (alle typer)
+- sctid78121007 = Direkte laryngoskopi
+- kgba00a  = Nødtracheostomi
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>airway_management</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Håndtering af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ekstra oplysninger til udfald: 
+- sctid41700002 = Spontan respiation
+- BGDA60 ? Maskeventilation
+- larynxmaske = Larynxmaske (alle typer)
+- kgbb00 = tracheostomi
+- andet = Ikke relevant/pt er Intuberet/tracheostomeret</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "larynxmaske" | "intubation" | "kgbb00" | "andet" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>service_time</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Start og slut ydelse</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>anesthesia_service</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Typen af anæstesi</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
+    <row r="23">
+      <c r="D23" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Ekstra oplysninger til udfald:
 - sctid72641008 = Sedation
@@ -1006,9 +967,48 @@
 - NAAC1 = TIVA</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "perifer_nerveblokade" | "central_blokade" | "sctid72641008" | "sctid225419007" | "inhalation" | "naac3" | "naac1" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>procedure_code</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SKS-kode for den **vigtigste** procedure foretaget under anæstesien</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1020,27 +1020,69 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>anesthesia_prioritization</t>
+          <t>pain_on_arrival</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hvor akut var anæstesien?</t>
+          <t>Smerte-score (NRS eller FLACC) mindre end 15 minutter efter ankomst til opvågningen</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
+ELLER
+Observationssted = Andet observationsafsnit*
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>anesthesia_prioritization</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hvor akut var anæstesien?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Ekstra oplysninger til udfald:
 - sctid103390000 = Elektiv
@@ -1049,41 +1091,70 @@
 - livstruende = Umiddelbart livstruende</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>anesthesia_complications</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Komplikationer opstået under anæstesien</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
+    <row r="33">
+      <c r="D33" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekstra oplysninger til udfald:
 - di46 = Hjertestop
@@ -1093,79 +1164,9 @@
 </t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Float</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>blockade_sufficiency</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Virkede blokaden sufficient?</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald: 
-- vv00002 = ja
-- vv00003  = nej</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
@@ -1177,103 +1178,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASA_score</t>
+          <t>pain_at_discharge</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Patientens ASA-score</t>
+          <t xml:space="preserve">Smerte-score (NRS eller FLACC)  mindre end 15 minutter før udskrivelse og transport fra opvågningen
+</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>best_achieved_laryngoscopy_grade</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kun relevant hvis Intubation = 3 forsøg eller flere uanset metode
-Intubation opgivet
-ELLER
-Intubation=Intubation opgivet</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>pain_on_arrival</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Smerte-score (NRS eller FLACC) mindre end 15 minutter efter ankomst til opvågningen</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
 ELLER
@@ -1281,42 +1207,41 @@
 </t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>pain_at_discharge</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smerte-score (NRS eller FLACC)  mindre end 15 minutter før udskrivelse og transport fra opvågningen
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nausea_at_discharge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Kvalme-score mindre end 15 minutter før udskrivelse og transport fra opvågningen</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
 ELLER
@@ -1324,83 +1249,75 @@
 </t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>nausea_on_arrival</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>*Kun relevant hvis Observationssted = Centralt observationsafsnit
-ELLER
-Observationssted = Andet observationsafsnit*</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASA_score</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Patientens ASA-score</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>observation_complications</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="D45" t="inlineStr">
+    <row r="41">
+      <c r="D41" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekstra oplysninger til udfald:
 - di46 = Hjertestop
@@ -1409,9 +1326,92 @@
 </t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>nausea_on_arrival</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>*Kun relevant hvis Observationssted = Centralt observationsafsnit
+ELLER
+Observationssted = Andet observationsafsnit*</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>blockade_sufficiency</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Virkede blokaden sufficient?</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ekstra oplysninger til udfald: 
+- vv00002 = ja
+- vv00003  = nej</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
@@ -1423,37 +1423,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>nausea_at_discharge</t>
+          <t>best_achieved_laryngoscopy_grade</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kvalme-score mindre end 15 minutter før udskrivelse og transport fra opvågningen</t>
+          <t>Bedst opnåede laryngoskopigrad</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
+          <t>Kun relevant hvis Intubation = 3 forsøg eller flere uanset metode
+Intubation opgivet
 ELLER
-Observationssted = Andet observationsafsnit*
-</t>
+Intubation=Intubation opgivet</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>

--- a/DAD5_export_v1_0_0.xlsx
+++ b/DAD5_export_v1_0_0.xlsx
@@ -437,7 +437,7 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="70" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
     <col width="70" customWidth="1" min="6" max="6"/>
     <col width="70" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
@@ -488,63 +488,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>intubation</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Typen af intubation</t>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald: 
-- laryngoskopi_max2 = Højest 2 forsøg, seneste ved direkte laryngoskopi
-- videolaryngoskopi_max2 = Højest 2 forsøg, seneste ved videolaryngoskopi
-- fleksibel_skopi_max2 = Højest 2 forsøg, seneste ved fleksibel skopi
-- andet_max2 = Højest 2 forsøg seneste ved andet end ovennævnte metoder
-- mere_end_3 = 3 forsøg eller flere uanset metode
-*Kun relevant hvis Luftvejshåndtering == Intubation*
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
+          <t>Float</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>relaxation_intubation</t>
+          <t>anesthesia_prioritization</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Relaksation til intubation</t>
+          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
         </is>
       </c>
     </row>
@@ -559,87 +542,73 @@
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- vv00003  = nej
-- sctid22587006 = Depolariserende
-- sctid59594008 = Non-depolariserende
-*Kun relevant hvis Luftvejshåndtering = Intubation*
-</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>airaway_plan</t>
+          <t>anesthesia_complications</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Plan for håndteringen af patientens luftveje</t>
+          <t>Komplikationer opstået under anæstesien</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>MethodCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- sctid241700002 = Spontan_respiration
-- bgda60 = Maskeventilation
-- sctid257268009 = Larynxmaske(alle typer)
-- intubation_laryngoskopi = Intubation ved direkte laryngoskopi
-- intubation_videolaryngoskopi = Intubation med videolaryngoskopi
-- intubation_fleksibelt_skop = Intubation med fleksibelt skop
-- intubation_anden_metode = Intubation ved anden metode
-- tracheostomi_lokalanæstesi = Tracheostomi i lokalanæstesi
-- intuberet_tracheostomeret = Er intuberet/tracheostomeret
+          <t xml:space="preserve">*Kun relevant hvis komplikationer = Nej*
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>anesthesia_observation</t>
+          <t>best_achieved_laryngoscopy_grade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bedst opnåede laryngoskopigrad</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -649,301 +618,260 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Type af observationssted (opvågningssted)</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hvor er patienten udskrevet til?
-Ekstra oplysninger til udfald: 
-- sctid261554009 = Reoperation
-- sctid310032008 = Intensiv afdeling
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nausea_on_arrival</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
 </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sluttidspunkt for opvågning</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Starttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ASA_score</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Patientens ASA-score</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>airway_management_last_attempt</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sidste forsøg på håndtering af patientens luftveje</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- sctid257268009 = LMA (alle typer)
-- sctid78121007 = Direkte laryngoskopi
-- kgba00a  = Nødtracheostomi
-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nausea_at_discharge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>airway_management</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Håndtering af patientens luftveje</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MethodCode</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald: 
-- sctid41700002 = Spontan respiation
-- BGDA60 ? Maskeventilation
-- larynxmaske = Larynxmaske (alle typer)
-- kgbb00 = tracheostomi
-- andet = Ikke relevant/pt er Intuberet/tracheostomeret</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "larynxmaske" | "intubation" | "kgbb00" | "andet" | </t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pain_at_discharge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>service_time</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Start og slut ydelse</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>observation_complications</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
+          <t xml:space="preserve">*Kun relevant hvis Observation ingen komplikationer = Nej*
+</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SOR_anesthesia</t>
+          <t>pain_on_arrival</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>anesthesia_service</t>
+          <t>blockade_sufficiency</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Typen af anæstesi</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
@@ -958,18 +886,9 @@
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald:
-- sctid72641008 = Sedation
-- sctid225419007 = Overvågning
-- NAAC3 =  IV og inhalation
-- NAAC1 = TIVA</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "perifer_nerveblokade" | "central_blokade" | "sctid72641008" | "sctid225419007" | "inhalation" | "naac3" | "naac1" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
@@ -981,17 +900,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>procedure_code</t>
+          <t>intubation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SKS-kode for den **vigtigste** procedure foretaget under anæstesien</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Typen af intubation</t>
         </is>
       </c>
     </row>
@@ -1003,457 +917,466 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pain_on_arrival</t>
+          <t>service_time</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Smerte-score (NRS eller FLACC) mindre end 15 minutter efter ankomst til opvågningen</t>
+          <t>Start og slut ydelse</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTimeStart</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
-ELLER
-Observationssted = Andet observationsafsnit*
-</t>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>anesthesia_prioritization</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Hvor akut var anæstesien?</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DateTimeEnd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>relaxation_intubation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Relaksation til intubation</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald:
-- sctid103390000 = Elektiv
-- fremskyndet  = Fremskyndet (dage)
-- hastende = Hastende (timer)
-- livstruende = Umiddelbart livstruende</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Float</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>airway_management_last_attempt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sidste forsøg på håndtering af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>anesthesia_complications</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Komplikationer opstået under anæstesien</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>anesthesia_service</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Typen af anæstesi</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
         <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "perifer_nerveblokade" | "central_blokade" | "sctid72641008" | "sctid225419007" | "inhalation" | "naac3" | "naac1" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>airaway_plan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Plan for håndteringen af patientens luftveje</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MethodCode</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Array/List[str, Enum]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>procedure_code</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>anesthesia_observation</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>OrganizationCode</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- di46 = Hjertestop
-- dt883 = Malign Hypertermi mistanke
-- dt884a = Tandskade
-*Kun relevant hvis komplikationer = Nej*
-</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>pain_at_discharge</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smerte-score (NRS eller FLACC)  mindre end 15 minutter før udskrivelse og transport fra opvågningen
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
-ELLER
-Observationssted = Andet observationsafsnit*
-</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>nausea_at_discharge</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Kvalme-score mindre end 15 minutter før udskrivelse og transport fra opvågningen</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Kun relevant hvis Observationssted = Centralt observationsafsnit
-ELLER
-Observationssted = Andet observationsafsnit*
-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ASA_score</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Patientens ASA-score</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>observation_complications</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Komplikationer opstået under opvågningen</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekstra oplysninger til udfald:
-- di46 = Hjertestop
-- dt884a = Tandskade
-*Kun relevant hvis Observation ingen komplikationer = Nej*
-</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>nausea_on_arrival</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
-</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Type af observationssted (opvågningssted)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>*Kun relevant hvis Observationssted = Centralt observationsafsnit
-ELLER
-Observationssted = Andet observationsafsnit*</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>blockade_sufficiency</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Virkede blokaden sufficient?</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Starttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>DateTimeEnd</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ekstra oplysninger til udfald: 
-- vv00002 = ja
-- vv00003  = nej</t>
+          <t>Sluttidspunkt for opvågning</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_achieved_laryngoscopy_grade</t>
+          <t>airway_management</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
+          <t>Håndtering af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>MethodCode</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kun relevant hvis Intubation = 3 forsøg eller flere uanset metode
-Intubation opgivet
-ELLER
-Intubation=Intubation opgivet</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid41700002" | "bgda60" | "sctid257268009" | "intubation" | "kgbb00" | "andet" | </t>
         </is>
       </c>
     </row>

--- a/DAD5_export_v1_0_0.xlsx
+++ b/DAD5_export_v1_0_0.xlsx
@@ -493,12 +493,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>nausea_on_arrival</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
+          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
+</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Float</t>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
         </is>
       </c>
     </row>
@@ -522,29 +533,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>anesthesia_prioritization</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
+          <t>Hvilken temperatur har patienten ved anæstesiens afslutning</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
+          <t>Float</t>
         </is>
       </c>
     </row>
@@ -556,74 +562,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anesthesia_complications</t>
+          <t>pain_at_discharge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Komplikationer opstået under anæstesien</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>anesthesia_complications</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Komplikationer opstået under anæstesien</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
           <t>ResultCode</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Array/List[str, Enum]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">*Kun relevant hvis komplikationer = Nej*
 </t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "anaestesi_afbrudt" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "dt883" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>best_achieved_laryngoscopy_grade</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bedst opnåede laryngoskopigrad</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>
@@ -635,35 +641,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nausea_on_arrival</t>
+          <t>blockade_sufficiency</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kvalme-score mindre end 15 minutter efter ankomst til opvågningen
-</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASA_score</t>
+          <t>best_achieved_laryngoscopy_grade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Patientens ASA-score</t>
+          <t>Bedst opnåede laryngoskopigrad</t>
         </is>
       </c>
     </row>
@@ -695,9 +695,14 @@
           <t>str, Enum</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "grad_1" | "grad_2" | "grad_3" | "grad_4" | </t>
         </is>
       </c>
     </row>
@@ -748,34 +753,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pain_at_discharge</t>
+          <t>observation_complications</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Komplikationer opstået under opvågningen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t xml:space="preserve">*Kun relevant hvis Observation ingen komplikationer = Nej*
+</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 10</t>
+          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
         </is>
       </c>
     </row>
@@ -787,12 +793,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>observation_complications</t>
+          <t>anesthesia_prioritization</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Komplikationer opstået under opvågningen</t>
+          <t>Hvor akut var anæstesien? Vurderet ved prætilsynet.</t>
         </is>
       </c>
     </row>
@@ -804,18 +810,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Kun relevant hvis Observation ingen komplikationer = Nej*
-</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "anafylaktisk_reaktion_shock" | "aspiration" | "durapunktur_accidentel" | "di46" | "huskeanaestesi" | "neuromuskulaer_blokade_forlaenget_virkning" | "dt884a" | "mors_uventet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid103390000" | "fremskyndet" | "hastende" | "livstruende" | </t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>blockade_sufficiency</t>
+          <t>ASA_score</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Patientens ASA-score</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00002" | "vv00003" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "asa_i" | "asa_ii" | "asa_iii" | "asa_iv" | "asa_v" | "asa_vi" | </t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>intubation</t>
+          <t>relaxation_intubation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Typen af intubation</t>
+          <t>Relaksation til intubation</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering = Intubation*
+</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
         </is>
       </c>
     </row>
@@ -939,110 +940,96 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>service_time</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Start og slut ydelse</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>anesthesia_observation</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>DateTimeStart</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Start tidspunkt for anæstesi-ydelse</t>
+          <t>Type af observationssted (opvågningssted)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hvor er patienten udskrevet til?
+</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
           <t>DateTimeEnd</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for anæstesi-ydelse</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for opvågning</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>relaxation_intubation</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Relaksation til intubation</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>DateTimeStart</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Starttidspunkt for opvågning</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "vv00003" | "sctid22587006" | "sctid59594008" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1074,11 +1061,6 @@
           <t>Array/List[str, Enum]</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "sctid257268009" | "sctid78121007" | "videolaryngoskopi" | "fleksibelt_skopi" | "vaekning_af_patient" | "kgba00a" | "anden_teknik" | </t>
@@ -1093,34 +1075,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>anesthesia_service</t>
+          <t>SOR_anesthesia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Typen af anæstesi</t>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "perifer_nerveblokade" | "central_blokade" | "sctid72641008" | "sctid225419007" | "inhalation" | "naac3" | "naac1" | </t>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1132,34 +1114,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>airaway_plan</t>
+          <t>procedure_code</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Plan for håndteringen af patientens luftveje</t>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>MethodCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1171,34 +1153,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SOR_anesthesia</t>
+          <t>intubation</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Typen af intubation</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Kun relevant hvis Luftvejshåndtering == Intubation*
+</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "laryngoskopi_max2" | "videolaryngoskopi_max2" | "fleksibel_skopi_max2" | "andet_max2" | "mere_end_3" | "intubation_opgivet" | </t>
         </is>
       </c>
     </row>
@@ -1210,12 +1193,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>procedure_code</t>
+          <t>service_time</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Start og slut ydelse</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1227,12 +1210,22 @@
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>DateTimeEnd</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sluttidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1242,36 +1235,46 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DateTimeStart</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Start tidspunkt for anæstesi-ydelse</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>anesthesia_observation</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>OrganizationCode</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Type af observationssted (opvågningssted)</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "centralt_observationsafsnit" | "andet_observationsafsnit" | "operationsgangen" | "intensiv" | "sengeafdeling" | "skadestue_modtagelse" | </t>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>anesthesia_service</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Typen af anæstesi</t>
         </is>
       </c>
     </row>
@@ -1283,61 +1286,46 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "stamafdeling" | "hjemmet" | "sctid261554009" | "sctid310032008" | "andet_hospital" | "doed_i_observationsperioden" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "perifer_nerveblokade" | "central_blokade" | "sctid72641008" | "sctid225419007" | "inhalation" | "naac3" | "naac1" | </t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>DateTimeStart</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Starttidspunkt for opvågning</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>airaway_plan</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Plan for håndteringen af patientens luftveje</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>DateTimeEnd</t>
+          <t>MethodCode</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sluttidspunkt for opvågning</t>
+          <t>Array/List[str, Enum]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "sctid241700002" | "bgda60" | "sctid257268009" | "intubation_laryngoskopi" | "intubation_videolaryngoskopi" | "intubation_anden_metode" | "tracheostomi_lokalanaestesi" | "intuberet_tracheostomeret" | </t>
         </is>
       </c>
     </row>
@@ -1367,11 +1355,6 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Array/List[str, Enum]</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
